--- a/数据库/存储过程.xlsx
+++ b/数据库/存储过程.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE78388-C9B0-49F0-A5A0-B780585F90E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,7 +63,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -70,12 +71,328 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>218244</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>94959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17335931-9CA6-4597-9AEC-D9406F803D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6647619" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>46996</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4473C45-E425-4756-B81B-2DEB30016861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="3019425"/>
+          <a:ext cx="5028571" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>18425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146A39A7-4FF4-498D-A21C-6A7E0B4E2F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="6638925"/>
+          <a:ext cx="5000000" cy="1304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>103719</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEB5D2B-5E1C-4E28-89A3-FFAD23676513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="0"/>
+          <a:ext cx="8447619" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>189450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD67DC36-E832-421C-A173-1F381E5119C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="4352925"/>
+          <a:ext cx="8400000" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>198965</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B5C128-6F87-4619-95C5-A2F9E1873AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="6353175"/>
+          <a:ext cx="8476190" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>132294</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB7E155-B221-4E2D-8455-01A82D8EC2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="9915525"/>
+          <a:ext cx="8447619" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -117,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +467,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +519,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,23 +711,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="AE59" sqref="AE59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -390,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/数据库/存储过程.xlsx
+++ b/数据库/存储过程.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE78388-C9B0-49F0-A5A0-B780585F90E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC695D8-57F6-40F5-BD0F-36B3FC1AFD3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>mybatis调用存储过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +40,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -57,8 +74,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,6 +408,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>132488</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2992E799-1159-42AE-BCE7-94B84CD67F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="14287500"/>
+          <a:ext cx="6895238" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -712,14 +776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="AE59" sqref="AE59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/数据库/存储过程.xlsx
+++ b/数据库/存储过程.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC695D8-57F6-40F5-BD0F-36B3FC1AFD3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21015" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -20,47 +19,380 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>mybatis调用存储过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,9 +400,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -78,28 +652,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -115,19 +733,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17335931-9CA6-4597-9AEC-D9406F803D92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -135,7 +747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6647619" cy="2323809"/>
+          <a:ext cx="6647180" cy="2323465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -159,19 +771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4473C45-E425-4756-B81B-2DEB30016861}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -179,7 +785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="495300" y="3019425"/>
-          <a:ext cx="5028571" cy="3171429"/>
+          <a:ext cx="5028565" cy="3171190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -203,19 +809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146A39A7-4FF4-498D-A21C-6A7E0B4E2F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -223,7 +823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="733425" y="6638925"/>
-          <a:ext cx="5000000" cy="1304762"/>
+          <a:ext cx="4999990" cy="1304290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,19 +847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEB5D2B-5E1C-4E28-89A3-FFAD23676513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -267,7 +861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6657975" y="0"/>
-          <a:ext cx="8447619" cy="4228571"/>
+          <a:ext cx="8447405" cy="4228465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,19 +885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD67DC36-E832-421C-A173-1F381E5119C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -311,7 +899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6791325" y="4352925"/>
-          <a:ext cx="8400000" cy="1771429"/>
+          <a:ext cx="8399780" cy="1771015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -335,19 +923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B5C128-6F87-4619-95C5-A2F9E1873AE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -355,7 +937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6962775" y="6353175"/>
-          <a:ext cx="8476190" cy="3276190"/>
+          <a:ext cx="8475980" cy="3275965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,19 +961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB7E155-B221-4E2D-8455-01A82D8EC2AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -399,7 +975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6924675" y="9915525"/>
-          <a:ext cx="8447619" cy="2780952"/>
+          <a:ext cx="8447405" cy="2780665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,19 +999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2992E799-1159-42AE-BCE7-94B84CD67F9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -443,11 +1013,137 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="381000" y="14287500"/>
-          <a:ext cx="6895238" cy="2428571"/>
+          <a:ext cx="6894830" cy="2428240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="17621250"/>
+          <a:ext cx="6124575" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="22793325"/>
+          <a:ext cx="5219700" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="27803475"/>
+          <a:ext cx="2171700" cy="5953125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -498,7 +1194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,26 +1227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,23 +1262,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,57 +1432,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="AL147" sqref="AL147:AL148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>